--- a/src/main/resources/template/excel/export/StockIndexSkuTemple.xlsx
+++ b/src/main/resources/template/excel/export/StockIndexSkuTemple.xlsx
@@ -16,14 +16,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>条码</t>
-  </si>
-  <si>
     <t>库存下限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>库存上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,9 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -598,13 +597,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
